--- a/results/mp/logistic/corona/confidence/168/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,54 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -103,142 +103,175 @@
     <t>co</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +640,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7363013698630136</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C5">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
@@ -865,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8490566037735849</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5135135135135135</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8085106382978723</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -1033,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1065,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4333333333333333</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7948717948717948</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4126984126984127</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3527131782945737</v>
+        <v>0.374031007751938</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D13">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3389830508474576</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.28</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.76875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.28</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.75625</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.261744966442953</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7413793103448276</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1457,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1444444444444444</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1507,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.08333333333333333</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1533,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7272727272727273</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03753351206434316</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1607,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1615,37 +1648,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.008006742520016857</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="F22">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2354</v>
+        <v>2349</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1657,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1665,37 +1698,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004513217279174726</v>
+        <v>0.004510309278350515</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="F23">
-        <v>0.74</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1707,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1715,37 +1748,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004184100418410041</v>
+        <v>0.004284323271665044</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F24">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4284</v>
+        <v>5113</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6352941176470588</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1757,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1765,37 +1798,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003503990656024917</v>
+        <v>0.004033071183706392</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E25">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="F25">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5119</v>
+        <v>4939</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6046511627906976</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1807,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1815,13 +1848,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1833,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5774058577405857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1859,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>101</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1867,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.66</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1885,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1893,13 +1926,13 @@
         <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1911,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1919,13 +1952,13 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5457627118644067</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L30">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1937,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1945,25 +1978,25 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>15</v>
-      </c>
-      <c r="M31">
-        <v>15</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1971,13 +2004,13 @@
         <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5285714285714286</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1989,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1997,13 +2030,13 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5076923076923077</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2015,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2023,13 +2056,13 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4719101123595505</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2041,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2049,13 +2082,13 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.45</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2067,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2075,13 +2108,13 @@
         <v>65</v>
       </c>
       <c r="K36">
-        <v>0.392156862745098</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2093,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2101,13 +2134,13 @@
         <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3076923076923077</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2119,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>54</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2127,13 +2160,13 @@
         <v>67</v>
       </c>
       <c r="K38">
-        <v>0.2876712328767123</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2145,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2153,25 +2186,25 @@
         <v>68</v>
       </c>
       <c r="K39">
-        <v>0.01751459549624687</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1178</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2179,25 +2212,25 @@
         <v>69</v>
       </c>
       <c r="K40">
-        <v>0.01519756838905775</v>
+        <v>0.5</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>972</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2205,25 +2238,25 @@
         <v>70</v>
       </c>
       <c r="K41">
-        <v>0.01050656660412758</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N41">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2637</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2231,25 +2264,25 @@
         <v>71</v>
       </c>
       <c r="K42">
-        <v>0.01015625</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1267</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2257,129 +2290,415 @@
         <v>72</v>
       </c>
       <c r="K43">
-        <v>0.009439899307740718</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1574</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.006032482598607889</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>4284</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.005952380952380952</v>
+        <v>0.203125</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>3173</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.005818619582664527</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>4955</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.03258145363408521</v>
+      </c>
+      <c r="L47">
+        <v>39</v>
+      </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47">
+        <v>0.93</v>
+      </c>
+      <c r="O47">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>0.02559414990859232</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49">
+        <v>0.01890989988876529</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49">
+        <v>0.89</v>
+      </c>
+      <c r="O49">
+        <v>0.11</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50">
+        <v>0.01418439716312057</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>0.88</v>
+      </c>
+      <c r="O50">
+        <v>0.12</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51">
+        <v>0.01069182389937107</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O51">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52">
+        <v>0.009441707717569787</v>
+      </c>
+      <c r="L52">
+        <v>23</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+      <c r="N52">
+        <v>0.72</v>
+      </c>
+      <c r="O52">
+        <v>0.28</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53">
+        <v>0.009377344336084021</v>
+      </c>
+      <c r="L53">
+        <v>25</v>
+      </c>
+      <c r="M53">
+        <v>32</v>
+      </c>
+      <c r="N53">
+        <v>0.78</v>
+      </c>
+      <c r="O53">
+        <v>0.22</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K47">
-        <v>0.00544006217213911</v>
-      </c>
-      <c r="L47">
-        <v>28</v>
-      </c>
-      <c r="M47">
-        <v>46</v>
-      </c>
-      <c r="N47">
-        <v>0.61</v>
-      </c>
-      <c r="O47">
-        <v>0.39</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>5119</v>
+      <c r="K54">
+        <v>0.007435691318327975</v>
+      </c>
+      <c r="L54">
+        <v>37</v>
+      </c>
+      <c r="M54">
+        <v>57</v>
+      </c>
+      <c r="N54">
+        <v>0.65</v>
+      </c>
+      <c r="O54">
+        <v>0.35</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55">
+        <v>0.006273525721455458</v>
+      </c>
+      <c r="L55">
+        <v>15</v>
+      </c>
+      <c r="M55">
+        <v>18</v>
+      </c>
+      <c r="N55">
+        <v>0.83</v>
+      </c>
+      <c r="O55">
+        <v>0.17</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56">
+        <v>0.0058331713007972</v>
+      </c>
+      <c r="L56">
+        <v>30</v>
+      </c>
+      <c r="M56">
+        <v>52</v>
+      </c>
+      <c r="N56">
+        <v>0.58</v>
+      </c>
+      <c r="O56">
+        <v>0.42</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57">
+        <v>0.005559416261292564</v>
+      </c>
+      <c r="L57">
+        <v>24</v>
+      </c>
+      <c r="M57">
+        <v>35</v>
+      </c>
+      <c r="N57">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58">
+        <v>0.004075235109717868</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+      <c r="N58">
+        <v>0.54</v>
+      </c>
+      <c r="O58">
+        <v>0.46</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
